--- a/result/LeaderBoard.xlsx
+++ b/result/LeaderBoard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,6 +531,28 @@
         <v>0.77062136056193</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>SAFETEAM-kerasnlp</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.9251620277777779</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.7481666666666666</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6713073743745921</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0005892391716666666</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.7802185240410412</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/result/LeaderBoard.xlsx
+++ b/result/LeaderBoard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -553,6 +553,28 @@
         <v>0.7802185240410412</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>SAFETEAM-qwen</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.4584469583333334</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4974166666666667</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6619584104030043</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.08388307440000001</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.424955133410403</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/result/LeaderBoard.xlsx
+++ b/result/LeaderBoard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -575,6 +575,28 @@
         <v>0.424955133410403</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>SAFETEAM-bino</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8762887499999999</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.77025</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.7231649764032534</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.001262046399166667</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.7575714149764032</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
